--- a/testGIT1.xlsx
+++ b/testGIT1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A778A8E6-E58E-46E6-85FF-A62942B0158A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510EF5C-886C-476E-8448-7FA02B545651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VersionHistory" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="54">
   <si>
     <t>Date</t>
   </si>
@@ -212,6 +212,9 @@
   <si>
     <t>left outer join
 analytics_study_metrics.study=analytics_study_milestones_metrics.study_name</t>
+  </si>
+  <si>
+    <t>sangeet1</t>
   </si>
 </sst>
 </file>
@@ -628,7 +631,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
@@ -676,8 +679,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8A7D3C7-9356-4524-BFF4-AE95A7867A08}">
   <dimension ref="A1:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -732,7 +735,7 @@
         <v>44</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>16</v>
+        <v>53</v>
       </c>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
@@ -752,7 +755,7 @@
         <v>46</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>

--- a/testGIT1.xlsx
+++ b/testGIT1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1510EF5C-886C-476E-8448-7FA02B545651}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63259597-92EE-467F-A3E1-95BCA0DE0EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
   <si>
     <t>Date</t>
   </si>
@@ -215,6 +215,9 @@
   </si>
   <si>
     <t>sangeet1</t>
+  </si>
+  <si>
+    <t>sangeet2</t>
   </si>
 </sst>
 </file>
@@ -680,7 +683,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -777,7 +780,7 @@
         <v>46</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
@@ -797,7 +800,7 @@
         <v>46</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>

--- a/testGIT1.xlsx
+++ b/testGIT1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63259597-92EE-467F-A3E1-95BCA0DE0EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB39CBD3-03C8-49E1-A402-BB97596966FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>sangeet2</t>
+  </si>
+  <si>
+    <t>sangeet3</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -820,7 +823,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -840,7 +843,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>

--- a/testGIT1.xlsx
+++ b/testGIT1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB39CBD3-03C8-49E1-A402-BB97596966FC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D00E4-2B70-4C05-B9A3-1970A22593D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VersionHistory" sheetId="1" r:id="rId1"/>
@@ -220,7 +220,7 @@
     <t>sangeet2</t>
   </si>
   <si>
-    <t>sangeet3</t>
+    <t>sangeet3- merge simulation</t>
   </si>
 </sst>
 </file>
@@ -686,7 +686,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/testGIT1.xlsx
+++ b/testGIT1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitMergeSimulation\excel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63259597-92EE-467F-A3E1-95BCA0DE0EBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E851CBA7-4DB1-44D3-A1F7-592BCA936E75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="VersionHistory" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
   <si>
     <t>Date</t>
   </si>
@@ -218,6 +218,9 @@
   </si>
   <si>
     <t>sangeet2</t>
+  </si>
+  <si>
+    <t>merge simulation - changed same cell</t>
   </si>
 </sst>
 </file>
@@ -683,7 +686,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -820,7 +823,7 @@
         <v>46</v>
       </c>
       <c r="E6" s="8" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
@@ -840,7 +843,7 @@
         <v>46</v>
       </c>
       <c r="E7" s="8" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>

--- a/testGIT1.xlsx
+++ b/testGIT1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{494D00E4-2B70-4C05-B9A3-1970A22593D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14807ED4-7060-43C3-9BB8-E782D95D39B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
   <si>
     <t>Date</t>
   </si>
@@ -221,6 +221,9 @@
   </si>
   <si>
     <t>sangeet3- merge simulation</t>
+  </si>
+  <si>
+    <t>merge simulation 2</t>
   </si>
 </sst>
 </file>
@@ -686,7 +689,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -863,7 +866,7 @@
         <v>46</v>
       </c>
       <c r="E8" s="8" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="8"/>

--- a/testGIT1.xlsx
+++ b/testGIT1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitMergeSimulation\excel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14807ED4-7060-43C3-9BB8-E782D95D39B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83710264-AEE8-4EB9-BC77-958C176F0AAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>merge simulation 2</t>
+  </si>
+  <si>
+    <t>MS 3</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,7 +889,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>

--- a/testGIT1.xlsx
+++ b/testGIT1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14807ED4-7060-43C3-9BB8-E782D95D39B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDE7DEA-6660-40E3-A3FC-4D9D8EBBACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
   <si>
     <t>Date</t>
   </si>
@@ -224,6 +224,9 @@
   </si>
   <si>
     <t>merge simulation 2</t>
+  </si>
+  <si>
+    <t>MS 4</t>
   </si>
 </sst>
 </file>
@@ -689,7 +692,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -886,7 +889,7 @@
         <v>46</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>23</v>
+        <v>57</v>
       </c>
       <c r="F9" s="8"/>
       <c r="G9" s="8"/>

--- a/testGIT1.xlsx
+++ b/testGIT1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDE7DEA-6660-40E3-A3FC-4D9D8EBBACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34F529BE-2A7C-4125-91AC-B3E81FABE8D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>MS 4</t>
+  </si>
+  <si>
+    <t>MS5.1</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -909,7 +912,7 @@
         <v>46</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>

--- a/testGIT1.xlsx
+++ b/testGIT1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitTest\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitMergeSimulation\excel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDDE7DEA-6660-40E3-A3FC-4D9D8EBBACC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C43BE6-06F4-48DC-8E31-B1F6B72605F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="59">
   <si>
     <t>Date</t>
   </si>
@@ -227,6 +227,9 @@
   </si>
   <si>
     <t>MS 4</t>
+  </si>
+  <si>
+    <t>MS 5</t>
   </si>
 </sst>
 </file>
@@ -692,7 +695,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -909,7 +912,7 @@
         <v>46</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>24</v>
+        <v>58</v>
       </c>
       <c r="F10" s="8"/>
       <c r="G10" s="8"/>

--- a/testGIT1.xlsx
+++ b/testGIT1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\GitMergeSimulation\excel_test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10C43BE6-06F4-48DC-8E31-B1F6B72605F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{975BBC38-B67B-4E37-B90C-2AC46BAB9474}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="60">
   <si>
     <t>Date</t>
   </si>
@@ -230,6 +230,9 @@
   </si>
   <si>
     <t>MS 5</t>
+  </si>
+  <si>
+    <t>MS 5.2</t>
   </si>
 </sst>
 </file>
@@ -695,7 +698,7 @@
   <dimension ref="A1:H37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -932,7 +935,7 @@
         <v>46</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>25</v>
+        <v>59</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="8"/>
